--- a/GNSS Trade Matrix.xlsx
+++ b/GNSS Trade Matrix.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29022"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="170" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{375CBF33-B092-40EC-9592-60EB2FEE1FD8}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dkbba\Documents\GitHub\BLV_PCB-v1(real)\BLV_PCB-v1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F09D9A-7948-4632-B080-56812858E26C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31530" yWindow="2595" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,8 +43,17 @@
   <commentList>
     <comment ref="P61" authorId="0" shapeId="0" xr:uid="{D7F0505A-E27D-4A9F-B8F7-DEDE01FB5CBE}">
       <text>
-        <t xml:space="preserve">Damian K. Baca:
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Aptos Narrow"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Damian K. Baca:
 </t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -47,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>Module</t>
   </si>
@@ -149,13 +163,16 @@
   </si>
   <si>
     <t>higher power &amp; cost</t>
+  </si>
+  <si>
+    <t>Good to ~80 km; HAB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,34 +719,34 @@
   <dimension ref="A4:V61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="97.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="97.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -758,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -772,7 +789,7 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -787,7 +804,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -797,6 +814,9 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
       <c r="E6" t="s">
         <v>20</v>
       </c>
@@ -810,7 +830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -841,7 +861,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -868,12 +888,12 @@
       </c>
       <c r="J8" s="1"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -882,27 +902,27 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="33" spans="10:22">
+    <row r="33" spans="10:22" x14ac:dyDescent="0.3">
       <c r="J33" s="1"/>
     </row>
-    <row r="35" spans="10:22">
+    <row r="35" spans="10:22" x14ac:dyDescent="0.3">
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
     </row>
-    <row r="36" spans="10:22">
+    <row r="36" spans="10:22" x14ac:dyDescent="0.3">
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="10:22">
+    <row r="37" spans="10:22" x14ac:dyDescent="0.3">
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="10:22">
+    <row r="38" spans="10:22" x14ac:dyDescent="0.3">
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="10:22">
+    <row r="39" spans="10:22" x14ac:dyDescent="0.3">
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="10:22">
+    <row r="40" spans="10:22" x14ac:dyDescent="0.3">
       <c r="M40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -912,10 +932,10 @@
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
     </row>
-    <row r="41" spans="10:22">
+    <row r="41" spans="10:22" x14ac:dyDescent="0.3">
       <c r="M41" s="1"/>
     </row>
-    <row r="61" spans="16:16"/>
+    <row r="61" spans="16:16" x14ac:dyDescent="0.3"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J5" r:id="rId1" xr:uid="{4B08A2E0-7D37-473A-902B-AE153B8A95C5}"/>
